--- a/GBTH/bin/Debug/net6.0-windows/2023/report.xlsx
+++ b/GBTH/bin/Debug/net6.0-windows/2023/report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\elecbug\CSharp\GBTH\bin\Debug\net6.0-windows\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6689547-E646-4022-A1A4-DB82FE0DB96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D60E006-E7AC-409A-B7E3-A89FAEE21A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8964" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1470,7 +1470,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3C3CD1-420F-481B-9DD5-042B9EB5F6E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{264D3853-B118-4ED5-91E6-E41053D21870}">
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1586,74 +1586,122 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
       <c r="B10" s="3"/>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
       <c r="E10" s="17"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="F10" s="3">
+        <v>50</v>
+      </c>
+      <c r="G10" s="3">
+        <v>50</v>
+      </c>
+      <c r="H10" s="3">
+        <v>50</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
+      <c r="A11" s="3">
+        <v>0</v>
+      </c>
       <c r="B11" s="3"/>
       <c r="C11" s="15"/>
       <c r="D11" s="16"/>
       <c r="E11" s="17"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>50</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+      <c r="A12" s="3">
+        <v>0</v>
+      </c>
       <c r="B12" s="3"/>
       <c r="C12" s="15"/>
       <c r="D12" s="16"/>
       <c r="E12" s="17"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="F12" s="3">
+        <v>50</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="A13" s="3">
+        <v>0</v>
+      </c>
       <c r="B13" s="3"/>
       <c r="C13" s="15"/>
       <c r="D13" s="16"/>
       <c r="E13" s="17"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="F13" s="3">
+        <v>50</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>50</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
+      <c r="A14" s="3">
+        <v>0</v>
+      </c>
       <c r="B14" s="3"/>
       <c r="C14" s="15"/>
       <c r="D14" s="16"/>
       <c r="E14" s="17"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="F14" s="3">
+        <v>50</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>100</v>
+      </c>
       <c r="I14" s="3"/>
       <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+      <c r="A15" s="3">
+        <v>0</v>
+      </c>
       <c r="B15" s="3"/>
       <c r="C15" s="15"/>
       <c r="D15" s="16"/>
       <c r="E15" s="17"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="F15" s="3">
+        <v>50</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>150</v>
+      </c>
       <c r="I15" s="3"/>
       <c r="J15" s="11"/>
     </row>
@@ -1909,7 +1957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F6753B5-3A9F-40BC-AC51-B59919E899EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4802F76A-054C-464F-8961-1CCF9149042F}">
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
@@ -2328,7 +2376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DDA32D7-3D0C-4FA8-B74C-CAF34BAAB7F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1172C2E-406C-4F58-999F-AB15B4DF20C7}">
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2767,7 +2815,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23868633-2518-476A-8665-EBC1E3373768}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DDE4CFF-54C3-4349-9352-4685BE2740C6}">
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
@@ -3186,7 +3234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0B7C20-4B14-4565-90B3-2AF9AA9C9BC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3D106F-87D0-4885-BDE3-1AC2DA115969}">
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3627,7 +3675,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00078A0F-F7C0-4709-BDA3-ED20217506C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06B08B45-4361-4F72-8BCB-5851959937A8}">
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
